--- a/data/trans_orig/P36BPD03_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B180CF2B-E7E7-433F-9A95-AD540C740F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5E8F4D-DECE-43C7-ACE0-B19EB04CDDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{396387D2-4D02-43D1-A964-3142E534FBD0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44E9598B-4524-474A-BB34-65A084E033F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>Población según el número de raciones de verdura u hortalizas que consume al día en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
@@ -74,652 +74,661 @@
     <t>11,68%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>No diariamente, pero tres o más por semana</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>Diariamente, aunque menos de dos al día</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>No diariamente, pero tres o más por semana</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>Diariamente, aunque menos de dos al día</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>23,16%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501E7E20-C6E3-42F6-AE77-971669D3E7C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B70A71-7ADC-4F8D-A56F-CD782DCF0F85}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1602,7 +1611,7 @@
         <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1626,13 @@
         <v>269674</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>550</v>
@@ -1632,13 +1641,13 @@
         <v>318281</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>869</v>
@@ -1647,13 +1656,13 @@
         <v>587955</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1677,13 @@
         <v>123281</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>218</v>
@@ -1683,13 +1692,13 @@
         <v>133867</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>340</v>
@@ -1698,13 +1707,13 @@
         <v>257147</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1769,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1781,13 @@
         <v>45554</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -1787,13 +1796,13 @@
         <v>30111</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>79</v>
@@ -1802,13 +1811,13 @@
         <v>75665</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1832,13 @@
         <v>216099</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>250</v>
@@ -1838,13 +1847,13 @@
         <v>177574</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>464</v>
@@ -1856,10 +1865,10 @@
         <v>47</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1883,13 @@
         <v>573327</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>895</v>
@@ -1889,13 +1898,13 @@
         <v>620700</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>1419</v>
@@ -1904,13 +1913,13 @@
         <v>1194027</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1934,13 @@
         <v>203409</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>328</v>
@@ -1940,13 +1949,13 @@
         <v>228774</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>514</v>
@@ -1955,13 +1964,13 @@
         <v>432184</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2026,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2038,13 @@
         <v>52674</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -2044,13 +2053,13 @@
         <v>49381</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -2059,13 +2068,13 @@
         <v>102055</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2089,13 @@
         <v>182828</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -2095,13 +2104,13 @@
         <v>163255</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>377</v>
@@ -2110,13 +2119,13 @@
         <v>346082</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2140,13 @@
         <v>328849</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>531</v>
@@ -2146,13 +2155,13 @@
         <v>388302</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>839</v>
@@ -2161,13 +2170,13 @@
         <v>717151</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2191,13 @@
         <v>164422</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>243</v>
@@ -2197,13 +2206,13 @@
         <v>273434</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>411</v>
@@ -2212,7 +2221,7 @@
         <v>437855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>156</v>
@@ -2316,13 +2325,13 @@
         <v>114517</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2346,13 @@
         <v>227521</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>302</v>
@@ -2352,13 +2361,13 @@
         <v>229967</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>523</v>
@@ -2367,13 +2376,13 @@
         <v>457488</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2397,13 @@
         <v>457609</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>800</v>
@@ -2403,13 +2412,13 @@
         <v>584727</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>1312</v>
@@ -2418,13 +2427,13 @@
         <v>1042336</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2448,13 @@
         <v>216329</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>395</v>
@@ -2454,13 +2463,13 @@
         <v>282764</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>605</v>
@@ -2469,13 +2478,13 @@
         <v>499093</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2552,13 @@
         <v>193293</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>199</v>
@@ -2558,13 +2567,13 @@
         <v>160094</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -2573,13 +2582,13 @@
         <v>353387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2603,13 @@
         <v>783396</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>1006</v>
@@ -2609,13 +2618,13 @@
         <v>710745</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>1780</v>
@@ -2624,13 +2633,13 @@
         <v>1494141</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2654,13 @@
         <v>1681482</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>2916</v>
@@ -2660,13 +2669,13 @@
         <v>1985783</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>4636</v>
@@ -2675,13 +2684,13 @@
         <v>3667265</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2705,13 @@
         <v>723363</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>1235</v>
@@ -2711,13 +2720,13 @@
         <v>946448</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>1940</v>
@@ -2726,13 +2735,13 @@
         <v>1669811</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2797,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD03_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5E8F4D-DECE-43C7-ACE0-B19EB04CDDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D160FC3-A8DE-45CB-87B7-F1258FB91F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44E9598B-4524-474A-BB34-65A084E033F5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B47EC96-56ED-47E1-ADF0-3F28C272429C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="195">
   <si>
     <t>Población según el número de raciones de verdura u hortalizas que consume al día en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
@@ -65,670 +65,559 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos de tres veces por semana</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>No diariamente, pero tres o más por semana</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>Diariamente, aunque menos de dos al día</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>No diariamente, pero tres o más por semana</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>Diariamente, aunque menos de dos al día</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>Dos o más al día (al menos una de ellas en ensalada o crudas)</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
   </si>
   <si>
     <t>51,55%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,8 +1032,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B70A71-7ADC-4F8D-A56F-CD782DCF0F85}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770DDF9-13A7-409C-A660-25108EDE51FE}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1261,10 +1150,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>11789</v>
+        <v>32248</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1276,10 +1165,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>5657</v>
+        <v>27552</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1291,10 +1180,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>17446</v>
+        <v>59799</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1312,10 +1201,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>21171</v>
+        <v>158547</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1327,10 +1216,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="I5" s="7">
-        <v>23694</v>
+        <v>134167</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1342,10 +1231,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="N5" s="7">
-        <v>44865</v>
+        <v>292714</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1363,10 +1252,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="D6" s="7">
-        <v>52024</v>
+        <v>306987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1378,10 +1267,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>140</v>
+        <v>690</v>
       </c>
       <c r="I6" s="7">
-        <v>73773</v>
+        <v>362183</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1393,10 +1282,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1066</v>
       </c>
       <c r="N6" s="7">
-        <v>125796</v>
+        <v>669171</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1414,10 +1303,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D7" s="7">
-        <v>15922</v>
+        <v>135888</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1429,10 +1318,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="I7" s="7">
-        <v>27609</v>
+        <v>150770</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1444,10 +1333,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>70</v>
+        <v>410</v>
       </c>
       <c r="N7" s="7">
-        <v>43531</v>
+        <v>286658</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1465,10 +1354,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D8" s="7">
-        <v>100905</v>
+        <v>633670</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1480,10 +1369,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I8" s="7">
-        <v>130733</v>
+        <v>674672</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1495,10 +1384,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>360</v>
+        <v>1964</v>
       </c>
       <c r="N8" s="7">
-        <v>231638</v>
+        <v>1308342</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1518,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>20306</v>
+        <v>46545</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1533,10 +1422,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I9" s="7">
-        <v>23399</v>
+        <v>27875</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1548,10 +1437,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N9" s="7">
-        <v>43705</v>
+        <v>74420</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1569,10 +1458,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="D10" s="7">
-        <v>135778</v>
+        <v>221226</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1584,10 +1473,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="I10" s="7">
-        <v>116254</v>
+        <v>165229</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1599,10 +1488,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="N10" s="7">
-        <v>252032</v>
+        <v>386455</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1611,7 +1500,7 @@
         <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,49 +1509,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>319</v>
+        <v>524</v>
       </c>
       <c r="D11" s="7">
-        <v>269674</v>
+        <v>731331</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>550</v>
+        <v>895</v>
       </c>
       <c r="I11" s="7">
-        <v>318281</v>
+        <v>555582</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>869</v>
+        <v>1419</v>
       </c>
       <c r="N11" s="7">
-        <v>587955</v>
+        <v>1286913</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,49 +1560,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>123281</v>
+        <v>192954</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="I12" s="7">
-        <v>133867</v>
+        <v>207475</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="N12" s="7">
-        <v>257147</v>
+        <v>400428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D13" s="7">
-        <v>549039</v>
+        <v>1192056</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1737,10 +1626,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>993</v>
+        <v>1513</v>
       </c>
       <c r="I13" s="7">
-        <v>591801</v>
+        <v>956160</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1752,10 +1641,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1604</v>
+        <v>2476</v>
       </c>
       <c r="N13" s="7">
-        <v>1140840</v>
+        <v>2148216</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1769,55 +1658,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>45554</v>
+        <v>52111</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>30111</v>
+        <v>47358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>75665</v>
+        <v>99470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1715,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="D15" s="7">
-        <v>216099</v>
+        <v>178533</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="I15" s="7">
-        <v>177574</v>
+        <v>152907</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="N15" s="7">
-        <v>393673</v>
+        <v>331441</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,49 +1766,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>524</v>
+        <v>308</v>
       </c>
       <c r="D16" s="7">
-        <v>573327</v>
+        <v>314229</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>895</v>
+        <v>531</v>
       </c>
       <c r="I16" s="7">
-        <v>620700</v>
+        <v>378545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>1419</v>
+        <v>839</v>
       </c>
       <c r="N16" s="7">
-        <v>1194027</v>
+        <v>692774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,49 +1817,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D17" s="7">
-        <v>203409</v>
+        <v>159806</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="I17" s="7">
-        <v>228774</v>
+        <v>354556</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>514</v>
+        <v>411</v>
       </c>
       <c r="N17" s="7">
-        <v>432184</v>
+        <v>514362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D18" s="7">
-        <v>1038388</v>
+        <v>704680</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1994,10 +1883,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>1513</v>
+        <v>1047</v>
       </c>
       <c r="I18" s="7">
-        <v>1057160</v>
+        <v>933366</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2009,10 +1898,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>1723</v>
       </c>
       <c r="N18" s="7">
-        <v>2095549</v>
+        <v>1638046</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2026,55 +1915,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>52674</v>
+        <v>61564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="7">
+        <v>63</v>
+      </c>
+      <c r="I19" s="7">
+        <v>46877</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="7">
         <v>124</v>
       </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>49381</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" s="7">
-        <v>96</v>
-      </c>
       <c r="N19" s="7">
-        <v>102055</v>
+        <v>108441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +1972,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="D20" s="7">
-        <v>182828</v>
+        <v>229821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="I20" s="7">
-        <v>163255</v>
+        <v>212150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>377</v>
+        <v>523</v>
       </c>
       <c r="N20" s="7">
-        <v>346082</v>
+        <v>441970</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,49 +2023,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>308</v>
+        <v>512</v>
       </c>
       <c r="D21" s="7">
-        <v>328849</v>
+        <v>429329</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>531</v>
+        <v>800</v>
       </c>
       <c r="I21" s="7">
-        <v>388302</v>
+        <v>580180</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>839</v>
+        <v>1312</v>
       </c>
       <c r="N21" s="7">
-        <v>717151</v>
+        <v>1009509</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,49 +2074,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D22" s="7">
-        <v>164422</v>
+        <v>205245</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="I22" s="7">
-        <v>273434</v>
+        <v>254472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>411</v>
+        <v>605</v>
       </c>
       <c r="N22" s="7">
-        <v>437855</v>
+        <v>459717</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,10 +2125,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D23" s="7">
-        <v>728772</v>
+        <v>925959</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2251,10 +2140,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I23" s="7">
-        <v>874371</v>
+        <v>1093679</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2266,10 +2155,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1723</v>
+        <v>2564</v>
       </c>
       <c r="N23" s="7">
-        <v>1603142</v>
+        <v>2019638</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2283,52 +2172,52 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="D24" s="7">
-        <v>62970</v>
+        <v>192468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="I24" s="7">
-        <v>51547</v>
+        <v>149662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" s="7">
+        <v>371</v>
+      </c>
+      <c r="N24" s="7">
+        <v>342130</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M24" s="7">
-        <v>124</v>
-      </c>
-      <c r="N24" s="7">
-        <v>114517</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>167</v>
@@ -2340,10 +2229,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>221</v>
+        <v>774</v>
       </c>
       <c r="D25" s="7">
-        <v>227521</v>
+        <v>788127</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>168</v>
@@ -2355,10 +2244,10 @@
         <v>170</v>
       </c>
       <c r="H25" s="7">
-        <v>302</v>
+        <v>1006</v>
       </c>
       <c r="I25" s="7">
-        <v>229967</v>
+        <v>664452</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>171</v>
@@ -2370,10 +2259,10 @@
         <v>173</v>
       </c>
       <c r="M25" s="7">
-        <v>523</v>
+        <v>1780</v>
       </c>
       <c r="N25" s="7">
-        <v>457488</v>
+        <v>1452580</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>174</v>
@@ -2391,10 +2280,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>512</v>
+        <v>1720</v>
       </c>
       <c r="D26" s="7">
-        <v>457609</v>
+        <v>1781878</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>177</v>
@@ -2403,37 +2292,37 @@
         <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2916</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1876489</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="7">
-        <v>800</v>
-      </c>
-      <c r="I26" s="7">
-        <v>584727</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>4636</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3658368</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="7">
-        <v>1312</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1042336</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,49 +2331,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>210</v>
+        <v>705</v>
       </c>
       <c r="D27" s="7">
-        <v>216329</v>
+        <v>693893</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>1235</v>
+      </c>
+      <c r="I27" s="7">
+        <v>967272</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="7">
-        <v>395</v>
-      </c>
-      <c r="I27" s="7">
-        <v>282764</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>1940</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1661166</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M27" s="7">
-        <v>605</v>
-      </c>
-      <c r="N27" s="7">
-        <v>499093</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1004</v>
+        <v>3371</v>
       </c>
       <c r="D28" s="7">
-        <v>964430</v>
+        <v>3456366</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2508,10 +2397,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1560</v>
+        <v>5356</v>
       </c>
       <c r="I28" s="7">
-        <v>1149005</v>
+        <v>3657876</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2523,10 +2412,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>2564</v>
+        <v>8727</v>
       </c>
       <c r="N28" s="7">
-        <v>2113435</v>
+        <v>7114243</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2539,273 +2428,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>172</v>
-      </c>
-      <c r="D29" s="7">
-        <v>193293</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>199</v>
-      </c>
-      <c r="I29" s="7">
-        <v>160094</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>371</v>
-      </c>
-      <c r="N29" s="7">
-        <v>353387</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>774</v>
-      </c>
-      <c r="D30" s="7">
-        <v>783396</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1006</v>
-      </c>
-      <c r="I30" s="7">
-        <v>710745</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1780</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1494141</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1720</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1681482</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2916</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1985783</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M31" s="7">
-        <v>4636</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3667265</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>705</v>
-      </c>
-      <c r="D32" s="7">
-        <v>723363</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1235</v>
-      </c>
-      <c r="I32" s="7">
-        <v>946448</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1940</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1669811</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3381534</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3803070</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7184604</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>231</v>
+      <c r="A29" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
